--- a/Data/Results/YelpZip/Classifiers Performance on YelpZip.xlsx
+++ b/Data/Results/YelpZip/Classifiers Performance on YelpZip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Rastogi\Desktop\Extended Version (Journal)\PeerJ\Data\Results\YelpZip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Rastogi\Desktop\Extended Version (Journal)\JDIS\Updated Code (without per included)\Data\Results\YelpZip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A648BB5-F697-490D-9411-B6081D46BDB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD68CE30-99FA-481C-82F5-FF3A18AA65F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -496,10 +498,10 @@
         <v>0.64617540754505454</v>
       </c>
       <c r="J3">
-        <v>0.7046636965084665</v>
+        <v>0.86924820593476682</v>
       </c>
       <c r="L3">
-        <v>0.70538139858798476</v>
+        <v>0.84401885518177733</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -519,10 +521,10 @@
         <v>0.43483483483483493</v>
       </c>
       <c r="J4">
-        <v>0.83186677631578954</v>
+        <v>0.82183816662880793</v>
       </c>
       <c r="L4">
-        <v>0.82150767543859649</v>
+        <v>0.77953105676282775</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -542,10 +544,10 @@
         <v>0.58886400263862826</v>
       </c>
       <c r="J5">
-        <v>0.68245829556884385</v>
+        <v>0.74881246494071374</v>
       </c>
       <c r="L5">
-        <v>0.6398581197792953</v>
+        <v>0.72794405013610741</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -565,10 +567,10 @@
         <v>0.59988450985233288</v>
       </c>
       <c r="J6">
-        <v>0.6925030481516582</v>
+        <v>0.754189878467171</v>
       </c>
       <c r="L6">
-        <v>0.65741138983966851</v>
+        <v>0.73218077850909413</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -641,10 +645,10 @@
         <v>0.62327337662498972</v>
       </c>
       <c r="J3">
-        <v>0.72344735385147019</v>
+        <v>0.87178857093888262</v>
       </c>
       <c r="L3">
-        <v>0.70272183574803582</v>
+        <v>0.8421383506167881</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -664,10 +668,10 @@
         <v>0.37751751751751761</v>
       </c>
       <c r="J4">
-        <v>0.78120065789473681</v>
+        <v>0.81010575200020196</v>
       </c>
       <c r="L4">
-        <v>0.71470394736842113</v>
+        <v>0.77739961131723079</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -687,10 +691,10 @@
         <v>0.56556850522033808</v>
       </c>
       <c r="J5">
-        <v>0.69532827789005436</v>
+        <v>0.75266670387225587</v>
       </c>
       <c r="L5">
-        <v>0.6624498518502363</v>
+        <v>0.72935298386152558</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -710,10 +714,10 @@
         <v>0.58306440627204192</v>
       </c>
       <c r="J6">
-        <v>0.69976522052430823</v>
+        <v>0.75690567330182867</v>
       </c>
       <c r="L6">
-        <v>0.66518408682075825</v>
+        <v>0.73334810252096094</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -786,10 +792,10 @@
         <v>0.65813555664833079</v>
       </c>
       <c r="J3">
-        <v>0.7349357376622232</v>
+        <v>0.87415758161521806</v>
       </c>
       <c r="L3">
-        <v>0.70783877075311075</v>
+        <v>0.84992772524671989</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -809,10 +815,10 @@
         <v>0.59471471471471471</v>
       </c>
       <c r="J4">
-        <v>0.79562225877192994</v>
+        <v>0.79267433936548792</v>
       </c>
       <c r="L4">
-        <v>0.69869517543859649</v>
+        <v>0.7731341965119507</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -832,10 +838,10 @@
         <v>0.61803742876220613</v>
       </c>
       <c r="J5">
-        <v>0.69662701406110794</v>
+        <v>0.75694230305314125</v>
       </c>
       <c r="L5">
-        <v>0.66232354616384304</v>
+        <v>0.73473504539688217</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -855,10 +861,10 @@
         <v>0.61876646050109207</v>
       </c>
       <c r="J6">
-        <v>0.70194662340510516</v>
+        <v>0.7598228308694579</v>
       </c>
       <c r="L6">
-        <v>0.66436892654150304</v>
+        <v>0.73841026956344824</v>
       </c>
     </row>
   </sheetData>
